--- a/xlsx_files/Group 1 Preparatory.xlsx
+++ b/xlsx_files/Group 1 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +138,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,6 +585,41 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Precalculus
+09:00-10:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Precalculus
+09:00-10:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+09:00-10:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -550,6 +627,11 @@
           <t>09:15</t>
         </is>
       </c>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -557,6 +639,11 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B8" s="8" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -564,6 +651,11 @@
           <t>09:45</t>
         </is>
       </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -571,6 +663,11 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -578,6 +675,11 @@
           <t>10:15</t>
         </is>
       </c>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -599,12 +701,11 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
-Zohirbek Asanshoev
-Yellow classroom
-11:00-12:30</t>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -614,7 +715,7 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n"/>
+      <c r="E15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -622,7 +723,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="6" t="n"/>
+      <c r="E16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -630,7 +731,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n"/>
+      <c r="E17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -638,7 +739,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n"/>
+      <c r="E18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -646,7 +747,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
+      <c r="E19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -696,6 +797,27 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+14:00-15:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+14:00-15:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+14:00-15:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -703,6 +825,9 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -710,6 +835,9 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -717,6 +845,9 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -724,6 +855,9 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -731,6 +865,9 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -752,6 +889,20 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -759,6 +910,8 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="D35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -766,6 +919,8 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="D36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -773,6 +928,8 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="D37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -780,6 +937,8 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="D38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -787,6 +946,8 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -978,15 +1139,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/Group 1 Preparatory.xlsx
+++ b/xlsx_files/Group 1 Preparatory.xlsx
@@ -141,18 +141,18 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,28 +592,28 @@
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Precalculus
 09:00-10:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+09:00-10:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>Precalculus
-09:00-10:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 09:00-10:30
@@ -701,7 +701,14 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Precalculus
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 11:00-12:30
@@ -715,6 +722,7 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="C15" s="8" t="n"/>
       <c r="E15" s="8" t="n"/>
     </row>
     <row r="16">
@@ -723,6 +731,7 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="C16" s="8" t="n"/>
       <c r="E16" s="8" t="n"/>
     </row>
     <row r="17">
@@ -731,6 +740,7 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="C17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
     </row>
     <row r="18">
@@ -739,6 +749,7 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="C18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -747,6 +758,7 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="C19" s="9" t="n"/>
       <c r="E19" s="9" t="n"/>
     </row>
     <row r="20">
@@ -797,27 +809,20 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+14:00-15:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-14:00-15:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-14:00-15:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -825,7 +830,6 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="8" t="n"/>
       <c r="D27" s="8" t="n"/>
       <c r="E27" s="8" t="n"/>
     </row>
@@ -835,7 +839,6 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="8" t="n"/>
       <c r="D28" s="8" t="n"/>
       <c r="E28" s="8" t="n"/>
     </row>
@@ -845,7 +848,6 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="8" t="n"/>
       <c r="D29" s="8" t="n"/>
       <c r="E29" s="8" t="n"/>
     </row>
@@ -855,7 +857,6 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="8" t="n"/>
       <c r="D30" s="8" t="n"/>
       <c r="E30" s="8" t="n"/>
     </row>
@@ -865,7 +866,6 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="9" t="n"/>
       <c r="D31" s="9" t="n"/>
       <c r="E31" s="9" t="n"/>
     </row>
@@ -889,7 +889,14 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="B34" s="11" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
@@ -900,7 +907,7 @@
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
-room:Red classroom: 201</t>
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -910,6 +917,7 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="8" t="n"/>
       <c r="D35" s="8" t="n"/>
       <c r="E35" s="8" t="n"/>
     </row>
@@ -919,6 +927,7 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="8" t="n"/>
       <c r="D36" s="8" t="n"/>
       <c r="E36" s="8" t="n"/>
     </row>
@@ -928,6 +937,7 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="8" t="n"/>
       <c r="D37" s="8" t="n"/>
       <c r="E37" s="8" t="n"/>
     </row>
@@ -937,6 +947,7 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="8" t="n"/>
       <c r="D38" s="8" t="n"/>
       <c r="E38" s="8" t="n"/>
     </row>
@@ -946,6 +957,7 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="9" t="n"/>
       <c r="D39" s="9" t="n"/>
       <c r="E39" s="9" t="n"/>
     </row>
@@ -1139,25 +1151,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="E26:E31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C26:C31"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/Group 1 Preparatory.xlsx
+++ b/xlsx_files/Group 1 Preparatory.xlsx
@@ -141,18 +141,18 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,28 +592,28 @@
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Precalculus
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Scientific Inquiry: Beyond the Visible
-09:00-10:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 09:00-10:30
@@ -701,14 +701,7 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Precalculus
-11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 11:00-12:30
@@ -722,7 +715,6 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C15" s="8" t="n"/>
       <c r="E15" s="8" t="n"/>
     </row>
     <row r="16">
@@ -731,7 +723,6 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="C16" s="8" t="n"/>
       <c r="E16" s="8" t="n"/>
     </row>
     <row r="17">
@@ -740,7 +731,6 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
     </row>
     <row r="18">
@@ -749,7 +739,6 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="C18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
     </row>
     <row r="19">
@@ -758,7 +747,6 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="C19" s="9" t="n"/>
       <c r="E19" s="9" t="n"/>
     </row>
     <row r="20">
@@ -809,14 +797,14 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="D26" s="7" t="inlineStr">
+      <c r="D26" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
 room:White classroom: 202</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
+      <c r="E26" s="10" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
@@ -889,25 +877,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="inlineStr">
+      <c r="D34" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
 room:White classroom: 202</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Precalculus
 16:00-17:30
-room:White classroom: 202</t>
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -917,7 +898,6 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="8" t="n"/>
       <c r="D35" s="8" t="n"/>
       <c r="E35" s="8" t="n"/>
     </row>
@@ -927,7 +907,6 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="8" t="n"/>
       <c r="D36" s="8" t="n"/>
       <c r="E36" s="8" t="n"/>
     </row>
@@ -937,7 +916,6 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="8" t="n"/>
       <c r="D37" s="8" t="n"/>
       <c r="E37" s="8" t="n"/>
     </row>
@@ -947,7 +925,6 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="8" t="n"/>
       <c r="D38" s="8" t="n"/>
       <c r="E38" s="8" t="n"/>
     </row>
@@ -957,7 +934,6 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="9" t="n"/>
       <c r="D39" s="9" t="n"/>
       <c r="E39" s="9" t="n"/>
     </row>
@@ -1151,26 +1127,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="17">
+    <mergeCell ref="E26:E31"/>
     <mergeCell ref="D26:D31"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="D6:D11"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C14:C19"/>
     <mergeCell ref="E14:E19"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/Group 1 Preparatory.xlsx
+++ b/xlsx_files/Group 1 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -60,12 +60,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -126,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,10 +132,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -149,12 +146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -599,21 +590,14 @@
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 09:00-10:30
@@ -627,11 +611,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -639,11 +622,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="F8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -651,11 +633,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -663,11 +644,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -675,11 +655,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="9" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="F11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -701,13 +680,34 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 11:00-12:30
 room:Grey classroom: 203</t>
         </is>
       </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Precalculus
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -715,7 +715,10 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -723,7 +726,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -731,7 +737,10 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -739,7 +748,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -747,7 +759,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="E19" s="9" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -797,14 +812,14 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>Precalculus
 14:00-15:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:30
@@ -818,8 +833,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="D27" s="8" t="n"/>
-      <c r="E27" s="8" t="n"/>
+      <c r="B27" s="9" t="n"/>
+      <c r="D27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -827,8 +842,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="D28" s="8" t="n"/>
-      <c r="E28" s="8" t="n"/>
+      <c r="B28" s="9" t="n"/>
+      <c r="D28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -836,8 +851,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="D29" s="8" t="n"/>
-      <c r="E29" s="8" t="n"/>
+      <c r="B29" s="9" t="n"/>
+      <c r="D29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -845,8 +860,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="D30" s="8" t="n"/>
-      <c r="E30" s="8" t="n"/>
+      <c r="B30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -854,8 +869,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="D31" s="9" t="n"/>
-      <c r="E31" s="9" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -877,18 +892,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+16:00-17:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>Precalculus
-16:00-17:30
-room:Grey classroom: 203</t>
+room:Red classroom: 201</t>
         </is>
       </c>
     </row>
@@ -898,8 +913,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="D35" s="8" t="n"/>
-      <c r="E35" s="8" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -907,8 +922,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="D36" s="8" t="n"/>
-      <c r="E36" s="8" t="n"/>
+      <c r="D36" s="9" t="n"/>
+      <c r="E36" s="9" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -916,8 +931,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="D37" s="8" t="n"/>
-      <c r="E37" s="8" t="n"/>
+      <c r="D37" s="9" t="n"/>
+      <c r="E37" s="9" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -925,8 +940,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="D38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -934,8 +949,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="D39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
+      <c r="D39" s="10" t="n"/>
+      <c r="E39" s="10" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1127,24 +1142,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E26:E31"/>
+  <mergeCells count="19">
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="D34:D39"/>
-    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="F6:F11"/>
     <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D14:D19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/Group 1 Preparatory.xlsx
+++ b/xlsx_files/Group 1 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -58,14 +58,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4B084"/>
+        <bgColor rgb="00F4B084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,13 +144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -146,6 +152,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -579,29 +594,15 @@
       <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Precalculus
-09:00-10:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
+09:00-10:45
+room:204</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 09:00-10:30
-room:Red classroom: 201</t>
+room:104</t>
         </is>
       </c>
     </row>
@@ -611,10 +612,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n"/>
-      <c r="C7" s="9" t="n"/>
-      <c r="D7" s="9" t="n"/>
-      <c r="F7" s="9" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -622,10 +621,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n"/>
-      <c r="C8" s="9" t="n"/>
-      <c r="D8" s="9" t="n"/>
-      <c r="F8" s="9" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -633,10 +630,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -644,10 +639,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="9" t="n"/>
-      <c r="D10" s="9" t="n"/>
-      <c r="F10" s="9" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -655,10 +648,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n"/>
-      <c r="C11" s="10" t="n"/>
-      <c r="D11" s="10" t="n"/>
-      <c r="F11" s="10" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="D11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -666,6 +657,7 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="B12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -680,32 +672,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Precalculus
+11:00-13:00
+room:204</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
+11:00-12:45
+room:202</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Precalculus
-11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-11:00-12:30
-room:Grey classroom: 203</t>
+11:00-13:00
+room:204</t>
         </is>
       </c>
     </row>
@@ -715,10 +700,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="9" t="n"/>
-      <c r="E15" s="9" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -726,10 +710,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -737,10 +720,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n"/>
-      <c r="C17" s="9" t="n"/>
-      <c r="D17" s="9" t="n"/>
-      <c r="E17" s="9" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -748,10 +730,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -759,10 +740,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="10" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="10" t="n"/>
-      <c r="E19" s="10" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -770,6 +750,9 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="8" t="n"/>
+      <c r="E20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -777,6 +760,8 @@
           <t>12:45</t>
         </is>
       </c>
+      <c r="B21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -784,6 +769,7 @@
           <t>13:00</t>
         </is>
       </c>
+      <c r="B22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -791,6 +777,7 @@
           <t>13:15</t>
         </is>
       </c>
+      <c r="B23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -798,6 +785,7 @@
           <t>13:30</t>
         </is>
       </c>
+      <c r="B24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -805,6 +793,7 @@
           <t>13:45</t>
         </is>
       </c>
+      <c r="B25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -812,18 +801,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>Precalculus
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+14:00-15:45
+room:104</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+14:00-15:45
+room:209</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
 14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-14:00-15:30
-room:Grey classroom: 203</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -833,8 +829,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="9" t="n"/>
-      <c r="D27" s="9" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -842,8 +839,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="9" t="n"/>
-      <c r="D28" s="9" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -851,8 +849,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="9" t="n"/>
-      <c r="D29" s="9" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -860,8 +859,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="9" t="n"/>
-      <c r="D30" s="9" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -869,8 +869,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="10" t="n"/>
-      <c r="D31" s="10" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -878,6 +879,8 @@
           <t>15:30</t>
         </is>
       </c>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -892,18 +895,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>Scientific Inquiry: Beyond the Visible
-16:00-17:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="E34" s="8" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:30
-room:Red classroom: 201</t>
+16:00-17:45
+room:201</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Academic Writing: Research, Fiction and Nonfiction
+16:00-17:45
+room:204</t>
         </is>
       </c>
     </row>
@@ -913,8 +916,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="D35" s="9" t="n"/>
-      <c r="E35" s="9" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -922,8 +925,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="D36" s="9" t="n"/>
-      <c r="E36" s="9" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -931,8 +934,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="D37" s="9" t="n"/>
-      <c r="E37" s="9" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -940,8 +943,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="D38" s="9" t="n"/>
-      <c r="E38" s="9" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -949,8 +952,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="D39" s="10" t="n"/>
-      <c r="E39" s="10" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -958,6 +961,8 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="C40" s="8" t="n"/>
+      <c r="F40" s="8" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1143,25 +1148,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B26:B31"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="B6:B12"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D26:D32"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="E14:E20"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C14:C20"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="C26:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/Group 1 Preparatory.xlsx
+++ b/xlsx_files/Group 1 Preparatory.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -64,32 +64,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F4B084"/>
-        <bgColor rgb="00F4B084"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00CC99FF"/>
+        <bgColor rgb="00CC99FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -144,15 +132,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -591,18 +576,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-09:00-10:45
-room:204</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
 09:00-10:30
-room:104</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -612,8 +590,7 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
+      <c r="D7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -621,8 +598,7 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -630,8 +606,7 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
+      <c r="D9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -639,8 +614,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
+      <c r="D10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -648,8 +622,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="D11" s="8" t="n"/>
+      <c r="D11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -657,7 +630,6 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -672,25 +644,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Precalculus
 11:00-13:00
-room:204</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
+room:104</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Precalculus
+11:00-13:00
+room:209</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 11:00-12:45
-room:202</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Precalculus
-11:00-13:00
-room:204</t>
+room:209</t>
         </is>
       </c>
     </row>
@@ -700,9 +672,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -710,9 +682,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -720,9 +692,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -730,9 +702,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -740,9 +712,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -750,9 +722,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="E20" s="7" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -760,8 +732,8 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
+      <c r="B21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -769,7 +741,6 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -777,7 +748,6 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -785,7 +755,6 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -793,7 +762,6 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -801,25 +769,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:45
-room:104</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
+room:202</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 14:00-15:45
-room:209</t>
+room:202</t>
         </is>
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
           <t>Scientific Inquiry: Beyond the Visible
-14:00-15:30
-room:203</t>
+14:00-17:00
+room:206</t>
         </is>
       </c>
     </row>
@@ -829,9 +797,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -839,9 +807,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -849,9 +817,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -859,9 +827,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -869,9 +837,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="D31" s="6" t="n"/>
+      <c r="F31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -879,8 +847,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="8" t="n"/>
+      <c r="B32" s="7" t="n"/>
+      <c r="D32" s="7" t="n"/>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -888,6 +857,7 @@
           <t>15:45</t>
         </is>
       </c>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -895,20 +865,35 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+16:00-17:30
+room:202</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>Academic Writing: Research, Fiction and Nonfiction
 16:00-17:45
-room:201</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>Academic Writing: Research, Fiction and Nonfiction
-16:00-17:45
-room:204</t>
-        </is>
-      </c>
+room:104</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>Precalculus
+16:00-18:00
+room:104</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>Scientific Inquiry: Beyond the Visible
+16:00-17:30
+room:209</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -916,8 +901,11 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="C35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="n"/>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -925,8 +913,11 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="C36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="n"/>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -934,7 +925,10 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="C37" s="7" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
+      <c r="E37" s="6" t="n"/>
       <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -943,8 +937,10 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
+      <c r="E38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -952,8 +948,10 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="C39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -961,8 +959,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="C40" s="8" t="n"/>
-      <c r="F40" s="8" t="n"/>
+      <c r="B40" s="7" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="D40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -970,6 +969,7 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="D41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1147,26 +1147,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D26:D31"/>
+  <mergeCells count="20">
+    <mergeCell ref="F26:F32"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B34:B40"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="D34:D41"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D26:D32"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="B26:B32"/>
     <mergeCell ref="C34:C40"/>
-    <mergeCell ref="F34:F40"/>
-    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="F26:F37"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C14:C20"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C26:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
